--- a/ApplicationTracker.xlsx
+++ b/ApplicationTracker.xlsx
@@ -17,6 +17,7 @@
     <sheet name="HEND" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="DALL" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="PHOE" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="MISC" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="246">
   <si>
     <t xml:space="preserve">status</t>
   </si>
@@ -363,6 +364,27 @@
     <t xml:space="preserve">https://www.linkedin.com/jobs/view/3910707118/?alternateChannel=search&amp;refId=NEvpivb7NVPyjPtj6r1oaQ%3D%3D&amp;trackingId=2wMeyQ%2Fjvd%2BOhn5p7xWJzg%3D%3D&amp;trk=d_flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3B5gPP5wEeT7ChnHoVXO9vTw%3D%3D</t>
   </si>
   <si>
+    <t xml:space="preserve">KNAPP North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software System Engineer I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/01/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">junior software developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.linkedin.com/jobs/view/3799966554/?alternateChannel=search&amp;refId=ObVOs55XZ32cMC%2F3Lm2tng%3D%3D&amp;trackingId=eDF8%2Fzsbqamo%2FRTflZpBvA%3D%3D&amp;trk=d_flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3B2%2F4m%2FxgfS4OJRCKdAZfrjw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.linkedin.com/jobs/view/3860574651/?alternateChannel=search&amp;refId=ObVOs55XZ32cMC%2F3Lm2tng%3D%3D&amp;trackingId=rB1pfUWg%2BMuHLOZMZSOvTg%3D%3D&amp;trk=d_flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3B2%2F4m%2FxgfS4OJRCKdAZfrjw%3D%3D</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAE</t>
   </si>
   <si>
@@ -649,6 +671,102 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.linkedin.com/jobs/view/3813430336/?alternateChannel=search&amp;refId=EkSe70Batw%2F%2FB9WaK6U%2BAQ%3D%3D&amp;trackingId=VuzEO39MBjU3I6KoCsOuVQ%3D%3D&amp;trk=d_flagship3_search_srp_jobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3BCfqsJ432QMaN1hXDEpmAMA%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software Engineer (University Graduate) - Reality Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zurich, Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/1088174335844287/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metacareers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Production Engineer, University Grad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London, UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/901402644628821/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineer, Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menlo Park, CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/7570635279698117/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software Engineer, Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/255858953923379/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software Engineer (Systems)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/1630161367813772/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burlingame, CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/774911481240798/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineer, Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/7434971086589377/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/915785373672084/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/433399585774341/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/3399105397019236/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/431120309614417/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineer, Infrastructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/983304886263145/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineer (Systems)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/309612311991368/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/7215916778436196/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/3618098698437067/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/353169477728605/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metacareers.com/jobs/295455683643391/</t>
   </si>
 </sst>
 </file>
@@ -955,7 +1073,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="39:39 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1066,983 +1184,452 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="39:39 F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="27.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="18.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="13.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="8" width="11.53"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>18</v>
+        <v>214</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>45404</v>
+        <v>45414</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>18</v>
+        <v>214</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>45404</v>
+        <v>45415</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>214</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>45404</v>
+        <v>45416</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>17</v>
+      <c r="A5" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>45404</v>
+        <v>45417</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>45404</v>
+        <v>45418</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>19</v>
+      <c r="H6" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>29</v>
+        <v>214</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>45404</v>
+        <v>45419</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
+      <c r="A8" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>45404</v>
+        <v>45420</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>19</v>
+      <c r="H8" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>17</v>
+      <c r="A9" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>45404</v>
+        <v>45421</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>19</v>
+      <c r="H9" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
+      <c r="A10" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>45404</v>
+        <v>45422</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>19</v>
+      <c r="H10" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>38</v>
+      <c r="A11" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="E11" s="11" t="n">
-        <v>45404</v>
+        <v>45423</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>19</v>
+      <c r="H11" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>29</v>
+      <c r="A12" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>45404</v>
+        <v>45424</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>19</v>
+      <c r="H12" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>43</v>
+      <c r="A13" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="E13" s="11" t="n">
-        <v>45404</v>
+        <v>45425</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>19</v>
+      <c r="H13" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>17</v>
+      <c r="A14" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="E14" s="11" t="n">
-        <v>45404</v>
+        <v>45426</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="H14" s="8" t="s">
-        <v>46</v>
+        <v>241</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>17</v>
+      <c r="A15" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="E15" s="11" t="n">
-        <v>45404</v>
+        <v>45427</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>19</v>
+      <c r="H15" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>52</v>
+        <v>223</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>45428</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="H16" s="8" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>52</v>
+        <v>229</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>45429</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="H17" s="8" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>52</v>
+        <v>232</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>45430</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="H18" s="8" t="s">
-        <v>63</v>
+        <v>245</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F36">
+  <conditionalFormatting sqref="F2:F19">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"APPLIED"</formula>
     </cfRule>
@@ -2057,7 +1644,1101 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F36" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F19" type="list">
+      <formula1>src!$A$2:$A$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="39:39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="27.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="18.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="13.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="8" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>45404</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>45404</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>45404</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>45404</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>45404</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>45404</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>45404</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>45404</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>45404</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>45404</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>45404</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>45404</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>45404</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>45404</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F44">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"APPLIED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"DENIED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"INTERVIEW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"ACCEPTED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F44" type="list">
       <formula1>src!$A$2:$A$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2101,14 +2782,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:39 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2124,14 +2841,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:39 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2147,14 +2900,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:39 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2170,14 +2959,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:39 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2193,10 +3018,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:39 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2228,6 +3053,15 @@
       </c>
       <c r="H1" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2246,10 +3080,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:39 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2261,35 +3095,55 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -2298,24 +3152,24 @@
         <v>19</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -2324,25 +3178,25 @@
         <v>19</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2350,24 +3204,24 @@
         <v>66</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
@@ -2376,24 +3230,24 @@
         <v>66</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
@@ -2402,24 +3256,24 @@
         <v>66</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
@@ -2428,24 +3282,24 @@
         <v>66</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>2</v>
@@ -2454,24 +3308,24 @@
         <v>66</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
@@ -2480,24 +3334,24 @@
         <v>66</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
@@ -2506,24 +3360,24 @@
         <v>66</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
@@ -2532,24 +3386,24 @@
         <v>66</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -2558,24 +3412,24 @@
         <v>66</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2</v>
@@ -2584,24 +3438,24 @@
         <v>66</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1</v>
@@ -2610,24 +3464,24 @@
         <v>66</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1</v>
@@ -2636,7 +3490,7 @@
         <v>66</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2676,45 +3530,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:39 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -2723,7 +3596,7 @@
         <v>66</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>55</v>
@@ -2731,19 +3604,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -2752,7 +3625,7 @@
         <v>66</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>55</v>
@@ -2760,20 +3633,20 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2781,7 +3654,7 @@
         <v>66</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>55</v>
@@ -2789,19 +3662,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
@@ -2810,7 +3683,7 @@
         <v>66</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>55</v>
@@ -2818,19 +3691,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
@@ -2839,7 +3712,7 @@
         <v>66</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>55</v>
@@ -2847,19 +3720,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
@@ -2868,7 +3741,7 @@
         <v>66</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>55</v>
@@ -2876,19 +3749,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>2</v>
@@ -2897,7 +3770,7 @@
         <v>66</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>55</v>
@@ -2905,19 +3778,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
@@ -2926,7 +3799,7 @@
         <v>66</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>55</v>
@@ -2934,19 +3807,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
@@ -2955,7 +3828,7 @@
         <v>66</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>55</v>
@@ -2963,19 +3836,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
@@ -2984,7 +3857,7 @@
         <v>66</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>55</v>
@@ -2992,19 +3865,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3013,7 +3886,7 @@
         <v>66</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>55</v>
@@ -3021,19 +3894,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -3042,7 +3915,7 @@
         <v>66</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>55</v>
@@ -3050,19 +3923,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1</v>
@@ -3071,7 +3944,7 @@
         <v>66</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>55</v>
@@ -3079,19 +3952,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>2</v>
@@ -3100,7 +3973,7 @@
         <v>66</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>55</v>
@@ -3108,19 +3981,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1</v>
@@ -3129,7 +4002,7 @@
         <v>66</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>55</v>
@@ -3137,19 +4010,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>1</v>
@@ -3158,7 +4031,7 @@
         <v>66</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>55</v>
@@ -3166,19 +4039,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>2</v>
@@ -3187,7 +4060,7 @@
         <v>66</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>55</v>
@@ -3195,19 +4068,19 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>1</v>
@@ -3216,7 +4089,7 @@
         <v>66</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>55</v>

--- a/ApplicationTracker.xlsx
+++ b/ApplicationTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="src" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="348">
   <si>
     <t xml:space="preserve">status</t>
   </si>
@@ -688,6 +688,9 @@
     <t xml:space="preserve">metacareers</t>
   </si>
   <si>
+    <t xml:space="preserve">CHECK WEBSITES FOR UPDATES</t>
+  </si>
+  <si>
     <t xml:space="preserve">Network Production Engineer, University Grad</t>
   </si>
   <si>
@@ -767,6 +770,309 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.metacareers.com/jobs/295455683643391/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starbucks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engineer II - Marketing Technology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://starbucks.taleo.net/careersection/1000222/jobdetail.ftl?job=230094537&amp;tz=GMT-05%3A00&amp;tzname=America%2FChicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starbucks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 Software Dev Engineer Intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISR, Haifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2534623/2024-software-dev-engineer-intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amazon.jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP, Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2415977/2024-software-dev-engineer-intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Development Engineer Intern, AWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRL, Dublin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2547310/network-development-engineer-intern-aws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROU, Iasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2459167/2024-software-dev-engineer-intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 Software Dev Engineer Intern SYD, AWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUS, Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2580965/2024-software-dev-engineer-intern-syd-aws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 Software Dev Engineer Intern (Embedded Development)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBR, Cambridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2544312/2024-software-dev-engineer-intern-embedded-development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intern SDE 2024 - Databases (m/w/d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEU, Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2540007/intern-sde-2024-databases-m-w-d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEBCAM WHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 Applied Science Intern (NSW, VIC, SA, QLD, ACT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2427918/2024-applied-science-intern-nsw-vic-sa-qld-act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 Software Dev Engineer Intern - Brisbane, Grocery Shopping Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUS, Brisbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2606106/2024-software-dev-engineer-intern-brisbane-grocery-shopping-experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intern SDE 2024 - Embedded Development (m/w/d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2544097/intern-sde-2024-embedded-development-m-w-d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Development Engineer Intern, Prime Air, Prime Air (AMOS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WA, Seattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2602863/software-development-engineer-intern-prime-air-prime-air-amos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUS, QLD, Brisbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2580950/2024-software-dev-engineer-intern-brisbane-grocery-shopping-experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA, WA, Seattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2602881/software-development-engineer-intern-prime-air-prime-air-amos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 Software Development Engineer Intern - Embedded Development (m/w/d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEU, Dresden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2571707/2024-software-development-engineer-intern-embedded-development-m-w-d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 Applied Scientist Internship (Multiple locations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2482131/2024-applied-scientist-internship-multiple-locations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Development Engineer in Test Internship - Fall 2024 (US)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2626997/software-development-engineer-in-test-internship-fall-2024-us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jr. Software Development Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2530694/jr-software-development-engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jr. Software Development Engineer - San Diego, Jr. Developer Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Diego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2630256/jr-software-development-engineer-san-diego-jr-developer-program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jr. Software Development Engineer, Jr. Developer Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA, VA, Arlington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2602091/jr-software-development-engineer-jr-developer-program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA, AZ, Tempe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2615953/jr-software-development-engineer-jr-developer-program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP, M, Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2608863/jr-software-development-engineer-jr-developer-program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usa, ca, San Luis Obispo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2530693/jr-software-development-engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA, NY, New York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2602054/jr-software-development-engineer-jr-developer-program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Development Engineer Internship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRA, SP, Sao Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2573809/software-development-engineer-internship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX, DIF, Mexico City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2573817/software-development-engineer-internship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX, Guadalajara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.jobs/en/jobs/2573812/software-development-engineer-internship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Researcher, BS/MS, Winter/Summer 2024 – Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.com/about/careers/applications/jobs/results/123267084596454086-student-researcher-bsms-wintersummer-2024?q=interns&amp;company=GFiber&amp;company=Verily%20Life%20Sciences&amp;company=Wing&amp;company=X&amp;company=Waymo&amp;company=Google&amp;company=YouTube&amp;degree=BACHELORS&amp;target_level=EARLY&amp;target_level=INTERN_AND_APPRENTICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Center Technician, University Graduate (2025 Start)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inzai, Chiba, Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Technical Resident, Cloud Academy, Early Career (English) – Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.com/about/careers/applications/apply/564f4c03-3c0e-4af2-99ff-f90df41b0883/role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF Firmware Engineer Internship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linz, Upper Austria, Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jobs.apple.com/en-ca/details/200457187/rf-firmware-engineer-internship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FY'24 Full Time Opportunity for Fresh Graduates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanghai, Shanghai, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jobs.apple.com/en-ca/details/200542480/fy-24-full-time-opportunity-for-fresh-graduates-general?team=STDNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWE - Software Development Intern - Core OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prague, Bohemia, Czechia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jobs.apple.com/en-ca/details/200512975/swe-software-development-intern-core-os?team=SFTWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWE - AI/ML - LLM Prompt Engineering - Intern WTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jobs.apple.com/en-ca/details/200531034/swe-ai-ml-llm-prompt-engineering-intern-wte?team=SFTWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Vision / Machine Learning Intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zurich, Zurich, Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jobs.apple.com/en-ca/details/200513589/computer-vision-machine-learning-intern?team=MLAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FY'24 Intern Opportunities at Apple – General\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jobs.apple.com/en-ca/details/200542126/fy-24-intern-opportunities-at-apple-general?team=STDNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front End Web Architect – Claris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunnyvale, California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jobs.apple.com/en-ca/details/200548620/front-end-web-architect-claris?team=SFTWR</t>
   </si>
 </sst>
 </file>
@@ -903,7 +1209,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -949,6 +1255,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1073,7 +1387,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="39:39 A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="B55 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1189,10 +1503,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="39:39 F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1254,25 +1568,28 @@
       <c r="I2" s="8" t="s">
         <v>218</v>
       </c>
+      <c r="K2" s="0" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>214</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>218</v>
@@ -1283,19 +1600,19 @@
         <v>214</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>45416</v>
+        <v>45414</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>218</v>
@@ -1306,19 +1623,19 @@
         <v>214</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>45417</v>
+        <v>45414</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>218</v>
@@ -1329,19 +1646,19 @@
         <v>214</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>45418</v>
+        <v>45414</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>218</v>
@@ -1352,19 +1669,19 @@
         <v>214</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>45419</v>
+        <v>45414</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>218</v>
@@ -1375,19 +1692,19 @@
         <v>214</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>45420</v>
+        <v>45414</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>218</v>
@@ -1398,19 +1715,19 @@
         <v>214</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>45421</v>
+        <v>45414</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>218</v>
@@ -1421,19 +1738,19 @@
         <v>214</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>45422</v>
+        <v>45414</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>218</v>
@@ -1444,19 +1761,19 @@
         <v>214</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E11" s="11" t="n">
-        <v>45423</v>
+        <v>45414</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>218</v>
@@ -1467,19 +1784,19 @@
         <v>214</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>45424</v>
+        <v>45414</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>218</v>
@@ -1490,19 +1807,19 @@
         <v>214</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E13" s="11" t="n">
-        <v>45425</v>
+        <v>45414</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>218</v>
@@ -1513,19 +1830,19 @@
         <v>214</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E14" s="11" t="n">
-        <v>45426</v>
+        <v>45414</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>218</v>
@@ -1536,19 +1853,19 @@
         <v>214</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E15" s="11" t="n">
-        <v>45427</v>
+        <v>45414</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>218</v>
@@ -1559,19 +1876,19 @@
         <v>214</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E16" s="11" t="n">
-        <v>45428</v>
+        <v>45414</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>218</v>
@@ -1585,16 +1902,16 @@
         <v>79</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E17" s="11" t="n">
-        <v>45429</v>
+        <v>45414</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>218</v>
@@ -1605,31 +1922,899 @@
         <v>214</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E18" s="11" t="n">
-        <v>45430</v>
+        <v>45414</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" s="11" t="n">
+        <v>45415</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="H19" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E23" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E24" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E30" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E31" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E34" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E35" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E36" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E38" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E39" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E40" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E41" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E42" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E43" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E45" s="11" t="n">
+        <v>45415</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="E46" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="E47" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E48" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E49" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E50" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E51" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E52" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E53" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E54" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="E55" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="12" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F19">
+  <conditionalFormatting sqref="F2:F45 F46:F63">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"APPLIED"</formula>
     </cfRule>
@@ -1644,11 +2829,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F19" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F63" type="list">
       <formula1>src!$A$2:$A$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H51" r:id="rId1" display="https://jobs.apple.com/en-ca/details/200512975/swe-software-development-intern-core-os?team=SFTWR"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1666,8 +2854,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="39:39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H39" activeCellId="1" sqref="B55 H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2785,7 +3973,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:39 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B55 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2844,7 +4032,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:39 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B55 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2903,7 +4091,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:39 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B55 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2962,7 +4150,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:39 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B55 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3021,7 +4209,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:39 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B55 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3083,7 +4271,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:39 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B55 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3533,7 +4721,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:39 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B55 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ApplicationTracker.xlsx
+++ b/ApplicationTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="src" sheetId="1" state="visible" r:id="rId2"/>
@@ -1209,7 +1209,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1258,11 +1258,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1387,7 +1383,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="B55 A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1505,8 +1501,8 @@
   </sheetPr>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H65" activeCellId="0" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1568,7 +1564,7 @@
       <c r="I2" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="8" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2559,198 +2555,198 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="E46" s="12" t="n">
+      <c r="E46" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" s="8" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E47" s="12" t="n">
+      <c r="E47" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="H47" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="I47" s="8" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="E48" s="12" t="n">
+      <c r="E48" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="H48" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="I48" s="0" t="s">
+      <c r="I48" s="8" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E49" s="12" t="n">
+      <c r="E49" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="H49" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="I49" s="0" t="s">
+      <c r="I49" s="8" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="E50" s="12" t="n">
+      <c r="E50" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="H50" s="8" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="E51" s="12" t="n">
+      <c r="E51" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="12" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="E52" s="12" t="n">
+      <c r="E52" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="H52" s="8" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="E53" s="12" t="n">
+      <c r="E53" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="H53" s="8" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="E54" s="12" t="n">
+      <c r="E54" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="H54" s="8" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="E55" s="12" t="n">
+      <c r="E55" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="H55" s="8" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="12" t="n">
+      <c r="E56" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -2758,7 +2754,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="12" t="n">
+      <c r="E57" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -2766,7 +2762,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="12" t="n">
+      <c r="E58" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -2774,7 +2770,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E59" s="12" t="n">
+      <c r="E59" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -2782,7 +2778,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="12" t="n">
+      <c r="E60" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -2790,7 +2786,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="12" t="n">
+      <c r="E61" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -2798,7 +2794,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E62" s="12" t="n">
+      <c r="E62" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -2806,7 +2802,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="12" t="n">
+      <c r="E63" s="11" t="n">
         <v>45419</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -2854,8 +2850,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H39" activeCellId="1" sqref="B55 H39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3302,7 +3298,7 @@
         <v>52</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>53</v>
@@ -3476,7 +3472,7 @@
         <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>66</v>
@@ -3592,7 +3588,7 @@
         <v>52</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>66</v>
@@ -3821,7 +3817,7 @@
         <v>52</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>53</v>
@@ -3973,7 +3969,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B55 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4032,7 +4028,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B55 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4091,7 +4087,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B55 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4150,7 +4146,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B55 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4209,7 +4205,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B55 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4271,7 +4267,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B55 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4720,8 +4716,8 @@
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B55 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5097,7 +5093,7 @@
         <v>166</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>66</v>

--- a/ApplicationTracker.xlsx
+++ b/ApplicationTracker.xlsx
@@ -1501,8 +1501,8 @@
   </sheetPr>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H65" activeCellId="0" sqref="H65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2016,7 +2016,7 @@
         <v>45415</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>260</v>
@@ -2062,7 +2062,7 @@
         <v>45415</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>265</v>
@@ -2223,7 +2223,7 @@
         <v>45415</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>285</v>
@@ -2246,7 +2246,7 @@
         <v>45415</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>287</v>
@@ -2315,7 +2315,7 @@
         <v>45415</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>295</v>
@@ -2499,7 +2499,7 @@
         <v>45415</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>314</v>
@@ -2522,7 +2522,7 @@
         <v>45415</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>316</v>
@@ -2545,7 +2545,7 @@
         <v>45415</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>318</v>
@@ -2674,7 +2674,7 @@
         <v>45419</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>337</v>
@@ -2850,8 +2850,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3617,7 +3617,7 @@
         <v>52</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>66</v>
@@ -4267,7 +4267,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4356,7 +4356,7 @@
         <v>122</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>19</v>
@@ -4717,7 +4717,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4832,7 +4832,7 @@
         <v>166</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>66</v>
@@ -4861,7 +4861,7 @@
         <v>166</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>66</v>
@@ -5267,7 +5267,7 @@
         <v>166</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>66</v>

--- a/ApplicationTracker.xlsx
+++ b/ApplicationTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="src" sheetId="1" state="visible" r:id="rId2"/>
@@ -1501,8 +1501,8 @@
   </sheetPr>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F47" activeCellId="0" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2591,7 +2591,7 @@
         <v>45419</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>322</v>
@@ -2614,7 +2614,7 @@
         <v>45419</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>327</v>
@@ -4716,8 +4716,8 @@
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
